--- a/lesson_4/TW2330.xlsx
+++ b/lesson_4/TW2330.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuyue\OneDrive\桌面\30hr_pyxl\python_excel_lesson4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Weber\Documents\GitHub\2020-Python-Excel-NTU\lesson_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{35FB210E-2477-4354-8581-3B177C61CE9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4571BFF7-6787-4286-B167-C23E42EF6EC1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB528947-8BB3-44F7-B64C-99CA6DBC29B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="1950" windowWidth="16920" windowHeight="10550" xr2:uid="{8C0CDC9C-0737-422E-AE34-0C7E2F4F4F87}"/>
+    <workbookView xWindow="5240" yWindow="1950" windowWidth="16920" windowHeight="10550" xr2:uid="{8C0CDC9C-0737-422E-AE34-0C7E2F4F4F87}"/>
   </bookViews>
   <sheets>
     <sheet name="TW2330" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -523,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9689E08F-5937-485C-A36C-110B1AC7FF80}">
-  <dimension ref="A1:L184"/>
+  <dimension ref="A1:L183"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="99" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1129,13 +1123,64 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="9"/>
+      <c r="A28" s="9">
+        <v>43868</v>
+      </c>
+      <c r="B28" s="10">
+        <v>28.95</v>
+      </c>
+      <c r="C28" s="3">
+        <v>29</v>
+      </c>
+      <c r="D28" s="3">
+        <v>28.55</v>
+      </c>
+      <c r="E28" s="3">
+        <v>28.85</v>
+      </c>
+      <c r="F28" s="3">
+        <v>29.1</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="9"/>
+      <c r="A29" s="9">
+        <v>43868</v>
+      </c>
+      <c r="B29" s="10">
+        <v>330</v>
+      </c>
+      <c r="C29" s="3">
+        <v>330.5</v>
+      </c>
+      <c r="D29" s="3">
+        <v>328</v>
+      </c>
+      <c r="E29" s="3">
+        <v>328.5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>29.1</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="9"/>
+      <c r="A30" s="9">
+        <v>43868</v>
+      </c>
+      <c r="B30" s="10">
+        <v>83.6</v>
+      </c>
+      <c r="C30" s="3">
+        <v>83.6</v>
+      </c>
+      <c r="D30" s="3">
+        <v>82.7</v>
+      </c>
+      <c r="E30" s="3">
+        <v>82.9</v>
+      </c>
+      <c r="F30" s="3">
+        <v>29.1</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="9"/>
@@ -1148,6 +1193,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="9"/>
+      <c r="B34" s="11"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="9"/>
@@ -1167,10 +1213,10 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="9"/>
-      <c r="B39" s="11"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="9"/>
+      <c r="B40" s="11"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="9"/>
@@ -1238,7 +1284,6 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" s="9"/>
-      <c r="B57" s="11"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" s="9"/>
@@ -1427,7 +1472,8 @@
       <c r="A119" s="9"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A120" s="9"/>
+      <c r="A120" s="12"/>
+      <c r="B120" s="13"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" s="12"/>
@@ -1680,10 +1726,6 @@
     <row r="183" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A183" s="12"/>
       <c r="B183" s="13"/>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A184" s="12"/>
-      <c r="B184" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
